--- a/loaded_influencer_data/othersideofibnu/othersideofibnu_video.xlsx
+++ b/loaded_influencer_data/othersideofibnu/othersideofibnu_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,115 +506,111 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7485248854422555959</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/photo/7488717142569798930</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26300</v>
+        <v>1079</v>
       </c>
       <c r="C2" t="n">
-        <v>3742</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>141</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>war lighstick special 10th anniversarry @SEVENTEEN 💓 #fyp #seventeen17_official #seventeencarat</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>15.22813688212928</v>
+        <v>11.39944392956441</v>
       </c>
       <c r="I2" t="n">
-        <v>14.22813688212928</v>
+        <v>11.12140871177016</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.2780352177942539</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5361216730038022</v>
+        <v>0.09267840593141798</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7481601377169329413</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7488156067747138834</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1984</v>
+        <v>1859</v>
       </c>
       <c r="C3" t="n">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>9.475806451612904</v>
+        <v>12.47982786444325</v>
       </c>
       <c r="I3" t="n">
-        <v>9.223790322580646</v>
+        <v>11.88811188811189</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2520161290322581</v>
+        <v>0.591715976331361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1512096774193548</v>
+        <v>0.6455083378160301</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/photo/7481593121571360005</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7487973296236006674</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1729</v>
+        <v>1286</v>
       </c>
       <c r="C4" t="n">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -624,187 +620,182 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>11.9144013880856</v>
+        <v>9.953343701399689</v>
       </c>
       <c r="I4" t="n">
-        <v>11.10468478889532</v>
+        <v>9.875583203732504</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8097165991902834</v>
+        <v>0.07776049766718507</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1156737998843262</v>
+        <v>0.1555209953343701</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7480000184416521477</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7485248854422555959</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1884</v>
+        <v>29100</v>
       </c>
       <c r="C5" t="n">
-        <v>129</v>
+        <v>4084</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>semester 4😔</t>
+          <t>전쟁 등대 스페셜 10주년 💓@SEVENTEEN #fyp #seventeen17_official #seventeencarat</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7.059447983014862</v>
+        <v>15.00343642611684</v>
       </c>
       <c r="I5" t="n">
-        <v>6.847133757961783</v>
+        <v>14.03436426116839</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2123142250530786</v>
+        <v>0.9690721649484537</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.5738831615120275</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7479555319698296070</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7481601377169329413</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196700</v>
+        <v>2438</v>
       </c>
       <c r="C6" t="n">
-        <v>41200</v>
+        <v>191</v>
       </c>
       <c r="D6" t="n">
-        <v>369</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1780</v>
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>21.133197763091</v>
+        <v>8.039376538146021</v>
       </c>
       <c r="I6" t="n">
-        <v>20.94560244026436</v>
+        <v>7.834290401968827</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1875953228266395</v>
+        <v>0.2050861361771944</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9049313675648195</v>
+        <v>0.1230516817063167</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-14</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7478903408393473285</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/photo/7481593121571360005</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3679</v>
+        <v>2074</v>
       </c>
       <c r="C7" t="n">
-        <v>370</v>
+        <v>195</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>MAKEUP TUTS FOR THE BOYS💁🏼‍♂️
-#fyp #beautytok #ibnuceoofempesh #makeuptutorial #makeupkorea</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>10.16580592552324</v>
+        <v>10.0771456123433</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05708072845882</v>
+        <v>9.402121504339441</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1087251970644197</v>
+        <v>0.6750241080038573</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6795324816526229</v>
+        <v>0.09643201542912247</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-14</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7478890476985208119</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7480000184416521477</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977</v>
+        <v>2224</v>
       </c>
       <c r="C8" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -813,2085 +804,2129 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>semester 4😔</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>5.816894284269095</v>
+        <v>6.115107913669065</v>
       </c>
       <c r="I8" t="n">
-        <v>5.614567526555387</v>
+        <v>5.935251798561151</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2023267577137076</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.04496402877697842</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7479555319698296070</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>199300</v>
+      </c>
+      <c r="C9" t="n">
+        <v>41700</v>
+      </c>
+      <c r="D9" t="n">
+        <v>375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1807</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>21.11138986452584</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.92323130958354</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1881585549422981</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9066733567486203</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7478903408393473285</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>395</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>소년들을 위한 메이크업 튜트💁🏼‍♂️ #fyp #beautytok #ibnuceoofempesh #makeuptutorial #makeupkorea</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9.492168960607499</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.373516848599905</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1186521120075937</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6169909824394874</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7478131910569413943</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4522</v>
-      </c>
-      <c r="C9" t="n">
-        <v>364</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>gen z emang durhaka, begadang biar siangnya tidur jadi ga laper😭</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8.314904909332153</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.049535603715171</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2653693056169836</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.04422821760283061</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7477183708026522885</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3572</v>
-      </c>
-      <c r="C10" t="n">
-        <v>259</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7478890476985208119</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C11" t="n">
+        <v>111</v>
+      </c>
+      <c r="D11" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>7.334826427771556</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.2508398656215</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.08398656215005598</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.1119820828667413</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7477182329887165751</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3641</v>
-      </c>
-      <c r="C11" t="n">
-        <v>369</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
+        <v>5.816894284269095</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.614567526555387</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2023267577137076</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7478131910569413943</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4522</v>
+      </c>
+      <c r="C12" t="n">
+        <v>364</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>gen z emang durhaka, begadang biar siangnya tidur jadi ga laper😭</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8.314904909332153</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.049535603715171</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2653693056169836</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.04422821760283061</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7477183708026522885</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3572</v>
+      </c>
+      <c r="C13" t="n">
+        <v>259</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>7.334826427771556</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.2508398656215</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.08398656215005598</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.1119820828667413</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7477182329887165751</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3641</v>
+      </c>
+      <c r="C14" t="n">
+        <v>369</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
         <v>10.18950837681956</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>10.13457841252403</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.05492996429552321</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>0.1098599285910464</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7474822529757105463</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>4908</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>306</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>14</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>oh AI ini yang lagi viral?! #beautycam #JJCapCut</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>6.540342298288508</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>6.234718826405868</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.3056234718826406</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>0.2852485737571313</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7474115600948743430</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>4084</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>218</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>9</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>7</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>ADA YANG MAU LABUBU HAVE A SEAT? 🥰 (Ig ibnuirwnn)
 #ibnuceoofempesh #labubu #popmart #labubusecret</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>5.558276199804114</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>5.337904015670911</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.2203721841332028</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>0.1714005876591577</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7473472907604266246</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>2766</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>154</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>8</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Kaka animekk?! #CapCut</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>5.712219812002893</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>5.567606652205351</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.1446131597975416</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.2892263195950832</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/photo/7473072026865995013</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>2436</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>200</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>20</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>12</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>9.0311986863711</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8.210180623973727</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.8210180623973727</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.4926108374384237</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7472674976013847863</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3269</v>
-      </c>
-      <c r="C16" t="n">
-        <v>188</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>6.056898133985928</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.750994187825023</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.3059039461609055</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.2141327623126338</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7472272114486234423</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2316</v>
-      </c>
-      <c r="C17" t="n">
-        <v>184</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>8.160621761658032</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.944732297063902</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.2158894645941278</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.1295336787564767</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7472057470190374150</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2036</v>
-      </c>
-      <c r="C18" t="n">
-        <v>138</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>7.170923379174853</v>
+        <v>9.0311986863711</v>
       </c>
       <c r="I18" t="n">
-        <v>6.777996070726916</v>
+        <v>8.210180623973727</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3929273084479371</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04911591355599214</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-19</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7471986414448676102</t>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7472674976013847863</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2105</v>
+        <v>3269</v>
       </c>
       <c r="C19" t="n">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>kalian pilih labubu mana? #ibnuceoofempesh #labubu #popmart #labubusecret</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>7.410926365795724</v>
+        <v>6.056898133985928</v>
       </c>
       <c r="I19" t="n">
-        <v>6.88836104513064</v>
+        <v>5.750994187825023</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5225653206650831</v>
+        <v>0.3059039461609055</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09501187648456057</v>
+        <v>0.2141327623126338</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-18</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7471944785675242807</t>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7472272114486234423</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102</v>
+        <v>2316</v>
       </c>
       <c r="C20" t="n">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
+        <v>8.160621761658032</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.944732297063902</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2158894645941278</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1295336787564767</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7472057470190374150</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C21" t="n">
+        <v>138</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>7.170923379174853</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.777996070726916</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3929273084479371</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.04911591355599214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7471986414448676102</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2105</v>
+      </c>
+      <c r="C22" t="n">
+        <v>145</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>kalian pilih labubu mana? #ibnuceoofempesh #labubu #popmart #labubusecret</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7.410926365795724</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.88836104513064</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5225653206650831</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.09501187648456057</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@othersideofibnu/video/7471944785675242807</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2102</v>
+      </c>
+      <c r="C23" t="n">
+        <v>165</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
         <v>8.182683158896289</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>7.849666983824928</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.3330161750713606</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>0.09514747859181732</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7471922952066338103</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>5090</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>316</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>23</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>#CapCut</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>6.2475442043222</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>6.208251473477406</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.03929273084479371</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>0.4518664047151277</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7471156430972685574</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>20300</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>1761</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>31</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>110</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>thrifting pasar senen murah murah banget😭 #ibnuceoofempesh #thrifting #pasarsenen #thrift</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>8.827586206896552</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>8.674876847290641</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.1527093596059113</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.541871921182266</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7471124025847106822</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>29300</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>1761</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>31</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>110</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>thrifting pasar senen murah murah banget😭 #ibnuceoofempesh #thrifting #pasarsenen #thrift</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>6.1160409556314</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>6.010238907849829</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.10580204778157</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>0.3754266211604095</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/photo/7470069509160717623</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>4191</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>2339</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>13</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>227</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>oh gini thrifting di pasar senen blok 3 #ibnuceoofempesh #thrifting #pasarsenen #thrift #thriftpasarsenen</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>56.12025769506085</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>55.81006919589597</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.3101884991648771</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>5.416368408494393</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7468218921959574789</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>3344</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>281</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>8</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
         <v>8.552631578947368</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>8.403110047846891</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.1495215311004785</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>0.2392344497607655</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7467489390881672453</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>1843</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>272</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>ternyata open preloved se seru itu 😭 #preloved #thrifting #ibnuceoofempesh</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>15.24688008681498</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>14.75854584915898</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.4883342376559957</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.2170374389582203</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7467123904839044358</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>2511</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>58</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>2</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>jalan jalan ke malaysia sama temen kampus🇲🇾 #malaysia #triptomalaysia #tripwithfriends</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>2.389486260454003</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>2.309836718438869</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.07964954201513341</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>0.03982477100756671</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7467036195588001030</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>1827</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>213</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>14</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>jalan jalan ke malaysia sama temen kampus🇲🇾 #malaysia #triptomalaysia #tripwithfriends</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>12.42474001094691</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>11.65845648604269</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.7662835249042145</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>0.1094690749863164</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7465196046096813318</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>4131</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>131</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>morning routine as an introvert #skincareroutine #morningroutine</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>3.316388283708545</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>3.17114500121036</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.1452432824981845</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>0.07262164124909223</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7464844087456288005</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>2065</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>210</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>9</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>video iseng</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>10.65375302663438</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>10.16949152542373</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.4842615012106538</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.4358353510895884</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7464136403610356998</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>3018</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>143</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>kalian pernah dapet boneka di permainan capit capitan juga ga? #fyp #ibnuceoofempesh #gamecapit</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>4.870775347912525</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>4.738237243207422</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.1325381047051027</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.09940357852882703</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7461838426904530182</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>2901</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>277</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>9</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>semester baru, gebrakan baru🙏🏼 #grwm #makeuproutines #ibnuceoofempesh #outfitkampus</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>9.824198552223372</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>9.548431575318855</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.2757669769045157</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.3102378490175801</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7461547084701814021</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>2772</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>144</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>2</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>4/365 of 2025, masih shooting film juga😔 #vlog #dailyroutine</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>5.266955266955267</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>5.194805194805195</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.07215007215007214</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>0.1443001443001443</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/photo/7460775262012099845</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>3289</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>170</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>10</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>8</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>rambutnya bagus before/after? #koreanstyle #twoblock #commahair #barbershop #newhair</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>5.472788081483734</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>5.168744299179082</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.3040437823046518</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.2432350258437215</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-19</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/photo/7458579999872847109</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>1850</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>249</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>6</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>4</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
         <v>13.78378378378378</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>13.45945945945946</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.3243243243243243</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>0.2162162162162162</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7458191839464574213</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>1864</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>81</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
         <v>4.399141630901288</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>4.345493562231759</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.0536480686695279</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.0536480686695279</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7455664877177244934</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>2547</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>96</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>5</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Replying to @MINJI goals 2025 : banyak kegiatan produktif😊🙏🏼 #challenge #dailylife #asmrvideo #vlog</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>3.886925795053004</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>3.769140164899882</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.1177856301531213</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>0.1963093835885355</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7455558460915125510</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>2643</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>145</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>4</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>7</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Replying to @Adriann 💫🪐 #challenge2025 day 2/365 #dailylife</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>5.637533106318577</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>5.486189935679152</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.1513431706394249</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>0.2648505486189936</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7455253658565971205</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>6502</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>166</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>6</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>boy in red #fitcheck #ootd #outfit</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>2.676099661642572</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>2.553060596739465</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1230390649031067</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.09227929867733005</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7455160229299490054</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>9489</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>397</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>14</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>56</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Replying to @Amaar 🌊 2025 tahunnya gue! gini caranya #studytok</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>4.331331014859311</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>4.183791758878701</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.1475392559806091</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>0.5901570239224365</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7454868653935299846</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>484400</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>941</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>23</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>152</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Replying to @Amaar 🌊 #challenge2025 day 1/365</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>0.199009083402147</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>0.194260941370768</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.004748142031379026</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0.03137902559867878</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7453056902587600134</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>3265</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>68400</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>401</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>8880</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>2024 bener bener ngubah perspektif terhadap hidup, orang, bahkan diri sendiri 🙂banyak hal ga terduga baik/ buruk terjadi, ga pernah nyangka shifting hidup sejauh ini🙂</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>2107.228177641654</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>2094.946401225115</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>12.28177641653905</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>271.9754977029096</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-01</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7449560850584702213</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>3442</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>225</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>6</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>2024 bener bener ngubah perspektif terhadap hidup, orang, bahkan diri sendiri 🙂banyak hal ga terduga baik/ buruk terjadi, ga pernah nyangka shifting hidup sejauh ini🙂</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>6.74026728646136</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>6.536897152818129</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.2033701336432307</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.1743172574084834</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7447135059229805830</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>3347</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>204</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>4</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>5</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>6.214520466089035</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>6.095010457125785</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1195100089632507</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>0.1493875112040634</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/photo/7441703451936984376</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>2320</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>131</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>3</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>3</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>@melisawdrst tuhan ga ngasih bakat nyanyi aja kita pede😊🏋️</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>5.775862068965517</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>5.646551724137931</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.1293103448275862</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>0.1293103448275862</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7438562676218793272</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>9974</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>81</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
         <v>0.8121114898736715</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>0.8121114898736715</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-27</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7437054160375139640</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>4194</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>393</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>6</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>17</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>jujur COKLAT DUBAI yang viral ternyata gini :”) #trend #fyp #coklatviral #coklatdubai #dubaichocolate</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>9.513590844062946</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>9.370529327610873</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.1430615164520744</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.4053409632808774</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@othersideofibnu/video/7436988479969512759</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>9060</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>134</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>2</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Kesandung docmart😭 @Hannaya @Sheez14 @melisawdrst #trend</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>1.501103752759382</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>1.479028697571744</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.02207505518763797</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>0.04415011037527594</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/video/7436713809999351096</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>5541</v>
-      </c>
-      <c r="C49" t="n">
-        <v>523</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>26</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>keringetan karena golf❌
-kringetan karena joget✅
-@Hannaya @Sheez14 @melisawdrst</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9.474824038982133</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9.438729471214582</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.03609456776755098</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.4692293809781628</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-11-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@othersideofibnu/photo/7436213867740450103</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>18000</v>
-      </c>
-      <c r="C50" t="n">
-        <v>412</v>
-      </c>
-      <c r="D50" t="n">
-        <v>5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>21</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>quick holiday after mid exam🙂‍↕️ #fyp #malaysia #vlog</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2.316666666666666</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.288888888888889</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-11-13</t>
         </is>
       </c>
     </row>
